--- a/Function_list.xlsx
+++ b/Function_list.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fowak\Desktop\stu3doc\back_com_inf\oxgame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57254623-BF22-433F-A787-92A2DB6421F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6258D6-50D2-4BBF-9B7E-BDD1B7F5C27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3E1BCDD2-6A6D-41C5-9AB9-46FF3F7B876C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{3E1BCDD2-6A6D-41C5-9AB9-46FF3F7B876C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="battlelogs" sheetId="3" r:id="rId2"/>
+    <sheet name="rooms" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
-  <si>
-    <t>列6</t>
-  </si>
-  <si>
-    <t>列7</t>
-  </si>
-  <si>
-    <t>列8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -97,19 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待機部屋がなければ部屋の作成</t>
-    <rPh sb="0" eb="4">
-      <t>タイキベヤ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>待機部屋があれば部屋に参加</t>
     <rPh sb="0" eb="4">
       <t>タイキベヤ</t>
@@ -330,6 +310,515 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋に参加</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST:/room/create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST:/room/add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋の取得</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機部屋の取得</t>
+    <rPh sb="0" eb="4">
+      <t>タイキベヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET:/room/receive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rooms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notnull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目概要</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋番号</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user1session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー1のセッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動割り当て</t>
+    <rPh sb="0" eb="3">
+      <t>ジドウワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋作成時に作成したユーザーのセッションを記録</t>
+    <rPh sb="0" eb="5">
+      <t>ヘヤサクセイジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user2session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー2のセッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋に参加したユーザーのセッションを記録</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>battlelogs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘履歴</t>
+    <rPh sb="0" eb="4">
+      <t>セントウリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>battlelogid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが参加しているroomのid</t>
+    <rPh sb="5" eb="7">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人のユーザーが参加しているroomid</t>
+    <rPh sb="0" eb="2">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board2</t>
+  </si>
+  <si>
+    <t>board3</t>
+  </si>
+  <si>
+    <t>board4</t>
+  </si>
+  <si>
+    <t>board5</t>
+  </si>
+  <si>
+    <t>board6</t>
+  </si>
+  <si>
+    <t>board7</t>
+  </si>
+  <si>
+    <t>board8</t>
+  </si>
+  <si>
+    <t>board9</t>
+  </si>
+  <si>
+    <t>盤面1</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面2</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面3</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面4</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面5</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面6</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面7</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面8</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面9</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の2マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の1マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の3マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の4マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の5マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の6マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の7マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の8マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盤面の9マス目の状態</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始ボタンを押したら</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機部屋があるか確認</t>
+    <rPh sb="0" eb="4">
+      <t>タイキベヤ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加の可否確認</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET:/room/check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room状態</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomsitu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合中か確認する待機状態なら0試合中なら1を試合が終わっていれば2を</t>
+    <rPh sb="0" eb="3">
+      <t>シアイチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>タイキジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シアイチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,19 +888,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}" name="テーブル1" displayName="テーブル1" ref="B2:I11" totalsRowShown="0">
-  <autoFilter ref="B2:I11" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}" name="テーブル1" displayName="テーブル1" ref="B2:F13" totalsRowShown="0">
+  <autoFilter ref="B2:F13" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9D17B246-B90F-459B-B3B3-1C198B5EA40F}" name="機能名"/>
     <tableColumn id="2" xr3:uid="{74545F1A-0B32-4EBC-A58A-1CE23CEDB0BF}" name="C/S"/>
     <tableColumn id="3" xr3:uid="{1A671B75-1B9C-4986-B012-2796D6F9E0B3}" name="トリガー"/>
     <tableColumn id="4" xr3:uid="{E8E75097-FAEF-498B-B06D-B2537701BD45}" name="機能概要"/>
     <tableColumn id="5" xr3:uid="{A69E8ACC-A532-45AC-BADB-289A747B7792}" name="パス"/>
-    <tableColumn id="6" xr3:uid="{03A55D3D-46B9-4FAB-A8CB-84A740635A91}" name="列6"/>
-    <tableColumn id="7" xr3:uid="{2CCAC10F-CFA1-46FF-96CE-000E406BEBFD}" name="列7"/>
-    <tableColumn id="8" xr3:uid="{7452FEDC-05FE-400C-87CF-541AA28EC8B5}" name="列8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{874A4F5E-D622-4560-97E7-C93BC10EF162}" name="テーブル27" displayName="テーブル27" ref="B2:L16" totalsRowShown="0">
+  <autoFilter ref="B2:L16" xr:uid="{874A4F5E-D622-4560-97E7-C93BC10EF162}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5E69A57A-6767-49B8-928C-BD432F0FA6BD}" name="順番"/>
+    <tableColumn id="2" xr3:uid="{591F145C-FD96-4F15-BD8E-CE8B777D447B}" name="PK"/>
+    <tableColumn id="3" xr3:uid="{2231D554-BE90-434A-A7B1-BFD4F5FE0C32}" name="UK"/>
+    <tableColumn id="4" xr3:uid="{E8C1721C-56F5-494E-890D-3575BA9CE66F}" name="物理名"/>
+    <tableColumn id="5" xr3:uid="{20A29CB4-C2E4-4A5A-873D-B8A73FF643BB}" name="論理名"/>
+    <tableColumn id="6" xr3:uid="{66D4CC0D-C843-4DCE-9DF9-E4658E037BF3}" name="データ型"/>
+    <tableColumn id="7" xr3:uid="{A8BB8486-574C-4F0A-A304-415266698DB9}" name="桁数"/>
+    <tableColumn id="8" xr3:uid="{44510F68-C3A6-4B30-AAFB-8AC636053618}" name="notnull"/>
+    <tableColumn id="9" xr3:uid="{A339E9C4-FE10-4C46-AAB1-C9609504ED00}" name="デフォルト"/>
+    <tableColumn id="10" xr3:uid="{3D14E76B-0F87-464F-8C03-C2A01B8027C6}" name="項目概要"/>
+    <tableColumn id="11" xr3:uid="{AFC3A28C-3BE7-490A-B382-25FD5C184EAA}" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0BEB97BD-8B20-49FE-9CBE-88901079EC68}" name="テーブル38" displayName="テーブル38" ref="N2:O5" totalsRowShown="0">
+  <autoFilter ref="N2:O5" xr:uid="{0BEB97BD-8B20-49FE-9CBE-88901079EC68}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EB8FB4B3-951E-44B7-9B8E-ABCE46B1D24D}" name="物理名"/>
+    <tableColumn id="2" xr3:uid="{3AD9A370-169C-4CDB-91EB-EC25CFE792C7}" name="論理名"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00926D42-7D55-4595-AFAB-1A04E49BA10F}" name="テーブル2" displayName="テーブル2" ref="B2:L6" totalsRowShown="0">
+  <autoFilter ref="B2:L6" xr:uid="{00926D42-7D55-4595-AFAB-1A04E49BA10F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{9585B676-88B2-4CF1-92B3-C192B19AA823}" name="順番"/>
+    <tableColumn id="2" xr3:uid="{6D85BD15-D902-4E3F-B6BC-F3E4B37F7B7A}" name="PK"/>
+    <tableColumn id="3" xr3:uid="{FBAD86F7-2F28-4EE0-B0B4-BD01C159C01A}" name="UK"/>
+    <tableColumn id="4" xr3:uid="{20A28FBC-9459-423B-B96B-83BD29DD8B39}" name="物理名"/>
+    <tableColumn id="5" xr3:uid="{22DFF9D6-B972-4D12-BBB1-455685F75D08}" name="論理名"/>
+    <tableColumn id="6" xr3:uid="{A64830EE-4E5D-4C69-8D1A-C625376E0B9E}" name="データ型"/>
+    <tableColumn id="7" xr3:uid="{039F32D9-0902-4B36-BB9D-0762EAB03AF8}" name="桁数"/>
+    <tableColumn id="8" xr3:uid="{2AF42B1B-AB14-45D0-94F2-26B5B013637C}" name="notnull"/>
+    <tableColumn id="9" xr3:uid="{E2172814-898A-4C82-99BF-8B1304020EE9}" name="デフォルト"/>
+    <tableColumn id="10" xr3:uid="{0AFACB12-1B77-4E98-B9FC-78341A23A59E}" name="項目概要"/>
+    <tableColumn id="11" xr3:uid="{8F555807-386E-4DA3-AFB2-ACEA7B7862EF}" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21BEE764-2E3E-46B7-ABA2-A705C377EC74}" name="テーブル3" displayName="テーブル3" ref="N2:O5" totalsRowShown="0">
+  <autoFilter ref="N2:O5" xr:uid="{21BEE764-2E3E-46B7-ABA2-A705C377EC74}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D01D4ED7-C9A8-45ED-9AA4-E2CB4B1186AF}" name="物理名"/>
+    <tableColumn id="2" xr3:uid="{B5B18446-2A17-4A9F-B749-9B1BCB897DE4}" name="論理名"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -732,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540CFE9-7519-457C-BBEF-59F7067CF8AE}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -743,144 +1291,176 @@
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -890,4 +1470,564 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B6C061-602F-48CD-B9CE-58E9B429E01A}">
+  <dimension ref="B2:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>255</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>255</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A22F61-1388-4A71-A102-62B48DE78C23}">
+  <dimension ref="B2:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>255</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>255</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Function_list.xlsx
+++ b/Function_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fowak\Desktop\stu3doc\back_com_inf\oxgame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6258D6-50D2-4BBF-9B7E-BDD1B7F5C27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18FC2A5-A285-4305-9F28-16DCE813558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{3E1BCDD2-6A6D-41C5-9AB9-46FF3F7B876C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3E1BCDD2-6A6D-41C5-9AB9-46FF3F7B876C}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -142,16 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対戦データを渡す</t>
-    <rPh sb="0" eb="2">
-      <t>タイセン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○か×が置かれたら</t>
     <rPh sb="4" eb="5">
       <t>オ</t>
@@ -262,22 +252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特殊勝利となる制限時間を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームの終了</t>
     <rPh sb="4" eb="6">
       <t>シュウリョウ</t>
@@ -324,14 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POST:/room/create</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST:/room/add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部屋の取得</t>
     <rPh sb="0" eb="2">
       <t>ヘヤ</t>
@@ -763,16 +729,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待機部屋があるか確認</t>
-    <rPh sb="0" eb="4">
-      <t>タイキベヤ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参加の可否確認</t>
     <rPh sb="0" eb="2">
       <t>サンカ</t>
@@ -820,6 +776,173 @@
     <rPh sb="25" eb="26">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションからプレイヤーの状態を取得し適切な処理を行う</t>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了したらチェック</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET:/room/create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET:/room/add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋の二人のプレイヤーが待機状態になったら</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>タイキジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomの状態を戦闘に移行</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomを戦闘状態に移行</t>
+    <rPh sb="5" eb="9">
+      <t>セントウジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦データの保存</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手が特殊勝利となる制限時間を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手番のプレイヤーに設置するようリクエスト</t>
+    <rPh sb="0" eb="2">
+      <t>テバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先攻後攻決定時と相手のプレイヤーの手番終了時</t>
+    <rPh sb="0" eb="4">
+      <t>センコウコウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケッテイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>テバンシュウリョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先攻後攻決定時と相手のプレイヤーの手番終了時に手番のプレイヤーに設置を求める</t>
+    <rPh sb="0" eb="7">
+      <t>センコウコウコウケッテイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>テバンシュウリョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テバン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET:/room/change/end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET:/room/playfirst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST:/room/change/battle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -888,14 +1011,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}" name="テーブル1" displayName="テーブル1" ref="B2:F13" totalsRowShown="0">
-  <autoFilter ref="B2:F13" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}" name="テーブル1" displayName="テーブル1" ref="B2:G15" totalsRowShown="0">
+  <autoFilter ref="B2:G15" xr:uid="{D7E3DA8D-F641-4A83-BE91-CB8277239D4B}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9D17B246-B90F-459B-B3B3-1C198B5EA40F}" name="機能名"/>
     <tableColumn id="2" xr3:uid="{74545F1A-0B32-4EBC-A58A-1CE23CEDB0BF}" name="C/S"/>
     <tableColumn id="3" xr3:uid="{1A671B75-1B9C-4986-B012-2796D6F9E0B3}" name="トリガー"/>
     <tableColumn id="4" xr3:uid="{E8E75097-FAEF-498B-B06D-B2537701BD45}" name="機能概要"/>
     <tableColumn id="5" xr3:uid="{A69E8ACC-A532-45AC-BADB-289A747B7792}" name="パス"/>
+    <tableColumn id="6" xr3:uid="{0065E1E2-8BA9-4229-A6B3-1BE6AA9C8358}" name="完了したらチェック"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1280,21 +1404,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540CFE9-7519-457C-BBEF-59F7067CF8AE}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1310,42 +1435,48 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
       <c r="F4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1359,12 +1490,15 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1376,91 +1510,134 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1499,43 +1676,43 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1543,34 +1720,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1578,22 +1755,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1601,22 +1778,22 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>255</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1624,22 +1801,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1647,22 +1824,22 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1670,22 +1847,22 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1693,22 +1870,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1716,22 +1893,22 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1739,22 +1916,22 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1762,22 +1939,22 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1785,22 +1962,22 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1808,22 +1985,22 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1831,22 +2008,22 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A22F61-1388-4A71-A102-62B48DE78C23}">
   <dimension ref="B2:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1882,43 +2059,43 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1926,34 +2103,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1961,22 +2138,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -1984,19 +2161,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>255</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -2004,22 +2181,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
